--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value891.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value891.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.466757273198697</v>
+        <v>3.367665529251099</v>
       </c>
       <c r="B1">
-        <v>2.39683729330419</v>
+        <v>2.217697858810425</v>
       </c>
       <c r="C1">
-        <v>2.800080316005404</v>
+        <v>1.633270621299744</v>
       </c>
       <c r="D1">
-        <v>3.228640507751956</v>
+        <v>1.519091963768005</v>
       </c>
       <c r="E1">
-        <v>1.872398914666758</v>
+        <v>1.49520480632782</v>
       </c>
     </row>
   </sheetData>
